--- a/番剧数据-清洗后数据【2015-2023】.xlsx
+++ b/番剧数据-清洗后数据【2015-2023】.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1693,33 +1706,376 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1742,9 +2098,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1752,11 +2350,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2039,19 +2689,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J777"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="10" max="10" width="36.0909090909091" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2842,7 @@
         <v>97883514</v>
       </c>
       <c r="D5">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E5">
         <v>530065</v>
@@ -2283,7 +2938,7 @@
         <v>57417655</v>
       </c>
       <c r="D8">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E8">
         <v>221690</v>
@@ -2315,7 +2970,7 @@
         <v>82761026</v>
       </c>
       <c r="D9">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E9">
         <v>405099</v>
@@ -2443,7 +3098,7 @@
         <v>158257390</v>
       </c>
       <c r="D13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E13">
         <v>1017143</v>
@@ -2458,7 +3113,7 @@
         <v>1422748</v>
       </c>
       <c r="I13">
-        <v>56029999999.99999</v>
+        <v>56030000000</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -2475,7 +3130,7 @@
         <v>66102674</v>
       </c>
       <c r="D14">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E14">
         <v>359092</v>
@@ -2507,7 +3162,7 @@
         <v>114398754</v>
       </c>
       <c r="D15">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E15">
         <v>356928</v>
@@ -2539,7 +3194,7 @@
         <v>72829334</v>
       </c>
       <c r="D16">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E16">
         <v>478210</v>
@@ -2571,7 +3226,7 @@
         <v>32419479</v>
       </c>
       <c r="D17">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E17">
         <v>344079</v>
@@ -2635,7 +3290,7 @@
         <v>70384144</v>
       </c>
       <c r="D19">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E19">
         <v>1253044</v>
@@ -2699,7 +3354,7 @@
         <v>34162757</v>
       </c>
       <c r="D21">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E21">
         <v>274336</v>
@@ -2731,7 +3386,7 @@
         <v>31510190</v>
       </c>
       <c r="D22">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E22">
         <v>142360</v>
@@ -2763,7 +3418,7 @@
         <v>26270866</v>
       </c>
       <c r="D23">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E23">
         <v>165819</v>
@@ -2827,7 +3482,7 @@
         <v>35117622</v>
       </c>
       <c r="D25">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E25">
         <v>123811</v>
@@ -3019,7 +3674,7 @@
         <v>22886894</v>
       </c>
       <c r="D31">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E31">
         <v>200991</v>
@@ -3083,7 +3738,7 @@
         <v>15855885</v>
       </c>
       <c r="D33">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E33">
         <v>85999</v>
@@ -3115,7 +3770,7 @@
         <v>32329606</v>
       </c>
       <c r="D34">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E34">
         <v>254844</v>
@@ -3211,7 +3866,7 @@
         <v>15232635</v>
       </c>
       <c r="D37">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E37">
         <v>47310</v>
@@ -3243,7 +3898,7 @@
         <v>14782510</v>
       </c>
       <c r="D38">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E38">
         <v>92544</v>
@@ -3275,7 +3930,7 @@
         <v>23161200</v>
       </c>
       <c r="D39">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E39">
         <v>165814</v>
@@ -3339,7 +3994,7 @@
         <v>28285724</v>
       </c>
       <c r="D41">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E41">
         <v>102867</v>
@@ -3371,7 +4026,7 @@
         <v>17076843</v>
       </c>
       <c r="D42">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E42">
         <v>71451</v>
@@ -3435,7 +4090,7 @@
         <v>4430220</v>
       </c>
       <c r="D44">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E44">
         <v>73791</v>
@@ -3467,7 +4122,7 @@
         <v>13542146</v>
       </c>
       <c r="D45">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E45">
         <v>75046</v>
@@ -3499,7 +4154,7 @@
         <v>10374819</v>
       </c>
       <c r="D46">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E46">
         <v>35562</v>
@@ -3531,7 +4186,7 @@
         <v>10486567</v>
       </c>
       <c r="D47">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E47">
         <v>49969</v>
@@ -3546,7 +4201,7 @@
         <v>105328</v>
       </c>
       <c r="I47">
-        <v>7009999999.999999</v>
+        <v>7010000000</v>
       </c>
       <c r="J47" t="s">
         <v>54</v>
@@ -3563,7 +4218,7 @@
         <v>13774792</v>
       </c>
       <c r="D48">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E48">
         <v>215898</v>
@@ -3610,7 +4265,7 @@
         <v>109018</v>
       </c>
       <c r="I49">
-        <v>6690000000.000001</v>
+        <v>6690000000</v>
       </c>
       <c r="J49" t="s">
         <v>56</v>
@@ -3627,7 +4282,7 @@
         <v>17845116</v>
       </c>
       <c r="D50">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E50">
         <v>99770</v>
@@ -3642,7 +4297,7 @@
         <v>270323</v>
       </c>
       <c r="I50">
-        <v>8059999999.999999</v>
+        <v>8060000000</v>
       </c>
       <c r="J50" t="s">
         <v>57</v>
@@ -3691,7 +4346,7 @@
         <v>13820058</v>
       </c>
       <c r="D52">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E52">
         <v>66488</v>
@@ -3723,7 +4378,7 @@
         <v>21801314</v>
       </c>
       <c r="D53">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E53">
         <v>76010</v>
@@ -3755,7 +4410,7 @@
         <v>4515317</v>
       </c>
       <c r="D54">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E54">
         <v>45610</v>
@@ -3787,7 +4442,7 @@
         <v>9588380</v>
       </c>
       <c r="D55">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E55">
         <v>47208</v>
@@ -3819,7 +4474,7 @@
         <v>19568647</v>
       </c>
       <c r="D56">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E56">
         <v>89167</v>
@@ -3851,7 +4506,7 @@
         <v>12314460</v>
       </c>
       <c r="D57">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E57">
         <v>36199</v>
@@ -3866,7 +4521,7 @@
         <v>128619</v>
       </c>
       <c r="I57">
-        <v>8459999999.999999</v>
+        <v>8460000000</v>
       </c>
       <c r="J57" t="s">
         <v>62</v>
@@ -4043,7 +4698,7 @@
         <v>8959920</v>
       </c>
       <c r="D63">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E63">
         <v>45626</v>
@@ -4075,7 +4730,7 @@
         <v>9897967</v>
       </c>
       <c r="D64">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E64">
         <v>47264</v>
@@ -4107,7 +4762,7 @@
         <v>6481784</v>
       </c>
       <c r="D65">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E65">
         <v>48496</v>
@@ -4139,7 +4794,7 @@
         <v>11066965</v>
       </c>
       <c r="D66">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E66">
         <v>30658</v>
@@ -4171,7 +4826,7 @@
         <v>13999297</v>
       </c>
       <c r="D67">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E67">
         <v>69783</v>
@@ -4235,7 +4890,7 @@
         <v>7610365</v>
       </c>
       <c r="D69">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E69">
         <v>39952</v>
@@ -4299,7 +4954,7 @@
         <v>2387508</v>
       </c>
       <c r="D71">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E71">
         <v>23388</v>
@@ -4331,7 +4986,7 @@
         <v>19593835</v>
       </c>
       <c r="D72">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E72">
         <v>249381</v>
@@ -4363,7 +5018,7 @@
         <v>5544702</v>
       </c>
       <c r="D73">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E73">
         <v>50839</v>
@@ -4427,7 +5082,7 @@
         <v>4514182</v>
       </c>
       <c r="D75">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E75">
         <v>50122</v>
@@ -4459,7 +5114,7 @@
         <v>6240504</v>
       </c>
       <c r="D76">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E76">
         <v>32836</v>
@@ -4491,7 +5146,7 @@
         <v>43461993</v>
       </c>
       <c r="D77">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E77">
         <v>252181</v>
@@ -4555,7 +5210,7 @@
         <v>2025285</v>
       </c>
       <c r="D79">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E79">
         <v>22816</v>
@@ -4619,7 +5274,7 @@
         <v>8974493</v>
       </c>
       <c r="D81">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E81">
         <v>33861</v>
@@ -4683,7 +5338,7 @@
         <v>568542</v>
       </c>
       <c r="D83">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E83">
         <v>42768</v>
@@ -4715,7 +5370,7 @@
         <v>14072772</v>
       </c>
       <c r="D84">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E84">
         <v>75513</v>
@@ -4811,7 +5466,7 @@
         <v>1671996</v>
       </c>
       <c r="D87">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E87">
         <v>15564</v>
@@ -4907,7 +5562,7 @@
         <v>4232281</v>
       </c>
       <c r="D90">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E90">
         <v>23001</v>
@@ -5003,7 +5658,7 @@
         <v>2908423</v>
       </c>
       <c r="D93">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E93">
         <v>17819</v>
@@ -5035,7 +5690,7 @@
         <v>3465886</v>
       </c>
       <c r="D94">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E94">
         <v>18544</v>
@@ -5067,7 +5722,7 @@
         <v>976113</v>
       </c>
       <c r="D95">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E95">
         <v>8208</v>
@@ -5163,7 +5818,7 @@
         <v>4878598</v>
       </c>
       <c r="D98">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E98">
         <v>56972</v>
@@ -5195,7 +5850,7 @@
         <v>647179</v>
       </c>
       <c r="D99">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E99">
         <v>10872</v>
@@ -5323,7 +5978,7 @@
         <v>448883</v>
       </c>
       <c r="D103">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E103">
         <v>6077</v>
@@ -5355,7 +6010,7 @@
         <v>1936586</v>
       </c>
       <c r="D104">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E104">
         <v>10701</v>
@@ -5419,7 +6074,7 @@
         <v>1300142</v>
       </c>
       <c r="D106">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E106">
         <v>14173</v>
@@ -5434,7 +6089,7 @@
         <v>809</v>
       </c>
       <c r="I106">
-        <v>869999999.9999999</v>
+        <v>870000000</v>
       </c>
       <c r="J106" t="s">
         <v>108</v>
@@ -5483,7 +6138,7 @@
         <v>2025610</v>
       </c>
       <c r="D108">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E108">
         <v>12240</v>
@@ -5498,7 +6153,7 @@
         <v>2480</v>
       </c>
       <c r="I108">
-        <v>869999999.9999999</v>
+        <v>870000000</v>
       </c>
       <c r="J108" t="s">
         <v>108</v>
@@ -5547,7 +6202,7 @@
         <v>636570</v>
       </c>
       <c r="D110">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E110">
         <v>5000</v>
@@ -5611,7 +6266,7 @@
         <v>422521</v>
       </c>
       <c r="D112">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E112">
         <v>2460</v>
@@ -5675,7 +6330,7 @@
         <v>9844425</v>
       </c>
       <c r="D114">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E114">
         <v>24438</v>
@@ -5707,7 +6362,7 @@
         <v>1616546</v>
       </c>
       <c r="D115">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E115">
         <v>5813</v>
@@ -5739,7 +6394,7 @@
         <v>569057</v>
       </c>
       <c r="D116">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E116">
         <v>8772</v>
@@ -5914,7 +6569,7 @@
         <v>2340</v>
       </c>
       <c r="I121">
-        <v>409999999.9999999</v>
+        <v>410000000</v>
       </c>
       <c r="J121" t="s">
         <v>113</v>
@@ -5931,7 +6586,7 @@
         <v>7412106</v>
       </c>
       <c r="D122">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E122">
         <v>7164</v>
@@ -5995,7 +6650,7 @@
         <v>551477</v>
       </c>
       <c r="D124">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E124">
         <v>18960</v>
@@ -6027,7 +6682,7 @@
         <v>9593558</v>
       </c>
       <c r="D125">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E125">
         <v>8181</v>
@@ -6059,7 +6714,7 @@
         <v>423278</v>
       </c>
       <c r="D126">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E126">
         <v>3780</v>
@@ -6091,7 +6746,7 @@
         <v>226604</v>
       </c>
       <c r="D127">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E127">
         <v>932</v>
@@ -6123,7 +6778,7 @@
         <v>174761</v>
       </c>
       <c r="D128">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E128">
         <v>617</v>
@@ -6155,7 +6810,7 @@
         <v>1033660</v>
       </c>
       <c r="D129">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E129">
         <v>6051</v>
@@ -6187,7 +6842,7 @@
         <v>150130</v>
       </c>
       <c r="D130">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E130">
         <v>726</v>
@@ -6219,7 +6874,7 @@
         <v>713973</v>
       </c>
       <c r="D131">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E131">
         <v>743</v>
@@ -6251,7 +6906,7 @@
         <v>154696</v>
       </c>
       <c r="D132">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E132">
         <v>726</v>
@@ -6283,7 +6938,7 @@
         <v>490738</v>
       </c>
       <c r="D133">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E133">
         <v>657</v>
@@ -6315,7 +6970,7 @@
         <v>379582</v>
       </c>
       <c r="D134">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E134">
         <v>566</v>
@@ -6347,7 +7002,7 @@
         <v>1759129</v>
       </c>
       <c r="D135">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E135">
         <v>678</v>
@@ -6379,7 +7034,7 @@
         <v>522872</v>
       </c>
       <c r="D136">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E136">
         <v>693</v>
@@ -6411,7 +7066,7 @@
         <v>179838550</v>
       </c>
       <c r="D137">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E137">
         <v>843108</v>
@@ -6426,7 +7081,7 @@
         <v>1569769</v>
       </c>
       <c r="I137">
-        <v>52079999999.99999</v>
+        <v>52080000000</v>
       </c>
       <c r="J137" t="s">
         <v>121</v>
@@ -6458,7 +7113,7 @@
         <v>1754527</v>
       </c>
       <c r="I138">
-        <v>58270000000.00001</v>
+        <v>58270000000</v>
       </c>
       <c r="J138" t="s">
         <v>122</v>
@@ -6539,7 +7194,7 @@
         <v>90806675</v>
       </c>
       <c r="D141">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E141">
         <v>791688</v>
@@ -6571,7 +7226,7 @@
         <v>84299229</v>
       </c>
       <c r="D142">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E142">
         <v>484398</v>
@@ -6603,7 +7258,7 @@
         <v>91200142</v>
       </c>
       <c r="D143">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E143">
         <v>452956</v>
@@ -6635,7 +7290,7 @@
         <v>169612937</v>
       </c>
       <c r="D144">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E144">
         <v>825660</v>
@@ -6667,7 +7322,7 @@
         <v>78375082</v>
       </c>
       <c r="D145">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E145">
         <v>602428</v>
@@ -6699,7 +7354,7 @@
         <v>87002349</v>
       </c>
       <c r="D146">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E146">
         <v>536291</v>
@@ -6731,7 +7386,7 @@
         <v>8037837</v>
       </c>
       <c r="D147">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E147">
         <v>75045</v>
@@ -6859,7 +7514,7 @@
         <v>114013523</v>
       </c>
       <c r="D151">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E151">
         <v>545598</v>
@@ -6923,7 +7578,7 @@
         <v>83974606</v>
       </c>
       <c r="D153">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E153">
         <v>373885</v>
@@ -6955,7 +7610,7 @@
         <v>58068112</v>
       </c>
       <c r="D154">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E154">
         <v>311804</v>
@@ -6987,7 +7642,7 @@
         <v>69746693</v>
       </c>
       <c r="D155">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E155">
         <v>322524</v>
@@ -7019,7 +7674,7 @@
         <v>69303996</v>
       </c>
       <c r="D156">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E156">
         <v>241049</v>
@@ -7083,7 +7738,7 @@
         <v>47804136</v>
       </c>
       <c r="D158">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E158">
         <v>477709</v>
@@ -7115,7 +7770,7 @@
         <v>61108823</v>
       </c>
       <c r="D159">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E159">
         <v>453107</v>
@@ -7147,7 +7802,7 @@
         <v>59772215</v>
       </c>
       <c r="D160">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E160">
         <v>374564</v>
@@ -7179,7 +7834,7 @@
         <v>39175677</v>
       </c>
       <c r="D161">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E161">
         <v>203418</v>
@@ -7211,7 +7866,7 @@
         <v>49203612</v>
       </c>
       <c r="D162">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E162">
         <v>271102</v>
@@ -7275,7 +7930,7 @@
         <v>29522449</v>
       </c>
       <c r="D164">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E164">
         <v>206933</v>
@@ -7371,7 +8026,7 @@
         <v>25664280</v>
       </c>
       <c r="D167">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E167">
         <v>139229</v>
@@ -7403,7 +8058,7 @@
         <v>2370974</v>
       </c>
       <c r="D168">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E168">
         <v>31534</v>
@@ -7435,7 +8090,7 @@
         <v>9262798</v>
       </c>
       <c r="D169">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E169">
         <v>36912</v>
@@ -7467,7 +8122,7 @@
         <v>28085966</v>
       </c>
       <c r="D170">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E170">
         <v>139998</v>
@@ -7499,7 +8154,7 @@
         <v>25742442</v>
       </c>
       <c r="D171">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E171">
         <v>150403</v>
@@ -7563,7 +8218,7 @@
         <v>14710726</v>
       </c>
       <c r="D173">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E173">
         <v>132807</v>
@@ -7659,7 +8314,7 @@
         <v>15631947</v>
       </c>
       <c r="D176">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E176">
         <v>103862</v>
@@ -7674,7 +8329,7 @@
         <v>88666</v>
       </c>
       <c r="I176">
-        <v>56029999999.99999</v>
+        <v>56030000000</v>
       </c>
       <c r="J176" t="s">
         <v>20</v>
@@ -7723,7 +8378,7 @@
         <v>12799180</v>
       </c>
       <c r="D178">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E178">
         <v>30718</v>
@@ -7819,7 +8474,7 @@
         <v>14024988</v>
       </c>
       <c r="D181">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E181">
         <v>104445</v>
@@ -7851,7 +8506,7 @@
         <v>8686952</v>
       </c>
       <c r="D182">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E182">
         <v>130085</v>
@@ -7915,7 +8570,7 @@
         <v>8021922</v>
       </c>
       <c r="D184">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E184">
         <v>94018</v>
@@ -7994,7 +8649,7 @@
         <v>118534</v>
       </c>
       <c r="I186">
-        <v>6409999999.999999</v>
+        <v>6410000000</v>
       </c>
       <c r="J186" t="s">
         <v>167</v>
@@ -8075,7 +8730,7 @@
         <v>8185559</v>
       </c>
       <c r="D189">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E189">
         <v>39266</v>
@@ -8171,7 +8826,7 @@
         <v>6634653</v>
       </c>
       <c r="D192">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E192">
         <v>29881</v>
@@ -8235,7 +8890,7 @@
         <v>9254008</v>
       </c>
       <c r="D194">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E194">
         <v>54833</v>
@@ -8331,7 +8986,7 @@
         <v>1377489</v>
       </c>
       <c r="D197">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E197">
         <v>15208</v>
@@ -8346,7 +9001,7 @@
         <v>32055</v>
       </c>
       <c r="I197">
-        <v>7540000000.000001</v>
+        <v>7540000000</v>
       </c>
       <c r="J197" t="s">
         <v>176</v>
@@ -8474,7 +9129,7 @@
         <v>141462</v>
       </c>
       <c r="I201">
-        <v>6490000000.000001</v>
+        <v>6490000000</v>
       </c>
       <c r="J201" t="s">
         <v>180</v>
@@ -8491,7 +9146,7 @@
         <v>7700117</v>
       </c>
       <c r="D202">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E202">
         <v>58856</v>
@@ -8555,7 +9210,7 @@
         <v>3867594</v>
       </c>
       <c r="D204">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E204">
         <v>28731</v>
@@ -8683,7 +9338,7 @@
         <v>9719298</v>
       </c>
       <c r="D208">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E208">
         <v>61526</v>
@@ -8747,7 +9402,7 @@
         <v>18942834</v>
       </c>
       <c r="D210">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E210">
         <v>94935</v>
@@ -8811,7 +9466,7 @@
         <v>8626890</v>
       </c>
       <c r="D212">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E212">
         <v>46488</v>
@@ -8843,7 +9498,7 @@
         <v>7188205</v>
       </c>
       <c r="D213">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E213">
         <v>41915</v>
@@ -8875,7 +9530,7 @@
         <v>4275655</v>
       </c>
       <c r="D214">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E214">
         <v>29336</v>
@@ -9003,7 +9658,7 @@
         <v>22068768</v>
       </c>
       <c r="D218">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E218">
         <v>76966</v>
@@ -9131,7 +9786,7 @@
         <v>2525674</v>
       </c>
       <c r="D222">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E222">
         <v>35321</v>
@@ -9195,7 +9850,7 @@
         <v>3381515</v>
       </c>
       <c r="D224">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E224">
         <v>31843</v>
@@ -9227,7 +9882,7 @@
         <v>2816395</v>
       </c>
       <c r="D225">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E225">
         <v>13726</v>
@@ -9387,7 +10042,7 @@
         <v>9362200</v>
       </c>
       <c r="D230">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E230">
         <v>42286</v>
@@ -9483,7 +10138,7 @@
         <v>903071</v>
       </c>
       <c r="D233">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E233">
         <v>8061</v>
@@ -9547,7 +10202,7 @@
         <v>965380</v>
       </c>
       <c r="D235">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E235">
         <v>9660</v>
@@ -9611,7 +10266,7 @@
         <v>1186103</v>
       </c>
       <c r="D237">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E237">
         <v>13773</v>
@@ -9707,7 +10362,7 @@
         <v>337193</v>
       </c>
       <c r="D240">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E240">
         <v>7030</v>
@@ -9739,7 +10394,7 @@
         <v>3502320</v>
       </c>
       <c r="D241">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E241">
         <v>60235</v>
@@ -9771,7 +10426,7 @@
         <v>293774</v>
       </c>
       <c r="D242">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E242">
         <v>10783</v>
@@ -9803,7 +10458,7 @@
         <v>1048624</v>
       </c>
       <c r="D243">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E243">
         <v>6012</v>
@@ -9835,7 +10490,7 @@
         <v>686340</v>
       </c>
       <c r="D244">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E244">
         <v>4765</v>
@@ -9899,7 +10554,7 @@
         <v>343149</v>
       </c>
       <c r="D246">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E246">
         <v>4849</v>
@@ -9931,7 +10586,7 @@
         <v>232456</v>
       </c>
       <c r="D247">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E247">
         <v>1021</v>
@@ -9995,7 +10650,7 @@
         <v>1300747</v>
       </c>
       <c r="D249">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E249">
         <v>5545</v>
@@ -10027,7 +10682,7 @@
         <v>606802</v>
       </c>
       <c r="D250">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E250">
         <v>20371</v>
@@ -10059,7 +10714,7 @@
         <v>109263</v>
       </c>
       <c r="D251">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E251">
         <v>1117</v>
@@ -10091,7 +10746,7 @@
         <v>968493</v>
       </c>
       <c r="D252">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E252">
         <v>1606</v>
@@ -10123,7 +10778,7 @@
         <v>75080</v>
       </c>
       <c r="D253">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E253">
         <v>805</v>
@@ -10155,7 +10810,7 @@
         <v>228909</v>
       </c>
       <c r="D254">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E254">
         <v>951</v>
@@ -10187,7 +10842,7 @@
         <v>183539</v>
       </c>
       <c r="D255">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E255">
         <v>3228</v>
@@ -10219,7 +10874,7 @@
         <v>440077</v>
       </c>
       <c r="D256">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E256">
         <v>848</v>
@@ -10251,7 +10906,7 @@
         <v>77868</v>
       </c>
       <c r="D257">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E257">
         <v>113</v>
@@ -10283,7 +10938,7 @@
         <v>1149413</v>
       </c>
       <c r="D258">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E258">
         <v>622</v>
@@ -10315,7 +10970,7 @@
         <v>1544976</v>
       </c>
       <c r="D259">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E259">
         <v>809</v>
@@ -10347,7 +11002,7 @@
         <v>54687</v>
       </c>
       <c r="D260">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E260">
         <v>207</v>
@@ -10379,7 +11034,7 @@
         <v>346657</v>
       </c>
       <c r="D261">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E261">
         <v>563</v>
@@ -10411,7 +11066,7 @@
         <v>113018</v>
       </c>
       <c r="D262">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E262">
         <v>232</v>
@@ -10443,7 +11098,7 @@
         <v>131887</v>
       </c>
       <c r="D263">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E263">
         <v>148</v>
@@ -10475,7 +11130,7 @@
         <v>193241</v>
       </c>
       <c r="D264">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E264">
         <v>84</v>
@@ -10539,7 +11194,7 @@
         <v>118400213</v>
       </c>
       <c r="D266">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E266">
         <v>1321920</v>
@@ -10554,7 +11209,7 @@
         <v>1469322</v>
       </c>
       <c r="I266">
-        <v>58029999999.99999</v>
+        <v>58030000000</v>
       </c>
       <c r="J266" t="s">
         <v>227</v>
@@ -10571,7 +11226,7 @@
         <v>129784801</v>
       </c>
       <c r="D267">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E267">
         <v>610358</v>
@@ -10603,7 +11258,7 @@
         <v>17223488</v>
       </c>
       <c r="D268">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E268">
         <v>480424</v>
@@ -10635,7 +11290,7 @@
         <v>105560134</v>
       </c>
       <c r="D269">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E269">
         <v>2490551</v>
@@ -10731,7 +11386,7 @@
         <v>37627706</v>
       </c>
       <c r="D272">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E272">
         <v>270467</v>
@@ -10746,7 +11401,7 @@
         <v>212532</v>
       </c>
       <c r="I272">
-        <v>56029999999.99999</v>
+        <v>56030000000</v>
       </c>
       <c r="J272" t="s">
         <v>233</v>
@@ -10795,7 +11450,7 @@
         <v>63195256</v>
       </c>
       <c r="D274">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E274">
         <v>615487</v>
@@ -10859,7 +11514,7 @@
         <v>80907745</v>
       </c>
       <c r="D276">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E276">
         <v>1499658</v>
@@ -10955,7 +11610,7 @@
         <v>35148905</v>
       </c>
       <c r="D279">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E279">
         <v>493948</v>
@@ -11051,7 +11706,7 @@
         <v>73005173</v>
       </c>
       <c r="D282">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E282">
         <v>615083</v>
@@ -11083,7 +11738,7 @@
         <v>26758094</v>
       </c>
       <c r="D283">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E283">
         <v>516689</v>
@@ -11147,7 +11802,7 @@
         <v>61666149</v>
       </c>
       <c r="D285">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E285">
         <v>275362</v>
@@ -11243,7 +11898,7 @@
         <v>39028405</v>
       </c>
       <c r="D288">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E288">
         <v>304919</v>
@@ -11275,7 +11930,7 @@
         <v>41699308</v>
       </c>
       <c r="D289">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E289">
         <v>445912</v>
@@ -11339,7 +11994,7 @@
         <v>3962136</v>
       </c>
       <c r="D291">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E291">
         <v>105764</v>
@@ -11371,7 +12026,7 @@
         <v>2060264</v>
       </c>
       <c r="D292">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E292">
         <v>29662</v>
@@ -11435,7 +12090,7 @@
         <v>19535884</v>
       </c>
       <c r="D294">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E294">
         <v>141831</v>
@@ -11467,7 +12122,7 @@
         <v>18532997</v>
       </c>
       <c r="D295">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E295">
         <v>139729</v>
@@ -11499,7 +12154,7 @@
         <v>18105186</v>
       </c>
       <c r="D296">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E296">
         <v>185995</v>
@@ -11531,7 +12186,7 @@
         <v>21720780</v>
       </c>
       <c r="D297">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E297">
         <v>163293</v>
@@ -11563,7 +12218,7 @@
         <v>10693890</v>
       </c>
       <c r="D298">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E298">
         <v>145944</v>
@@ -11627,7 +12282,7 @@
         <v>21645224</v>
       </c>
       <c r="D300">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E300">
         <v>128188</v>
@@ -11691,7 +12346,7 @@
         <v>1305104</v>
       </c>
       <c r="D302">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E302">
         <v>21394</v>
@@ -11755,7 +12410,7 @@
         <v>2973459</v>
       </c>
       <c r="D304">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E304">
         <v>13217</v>
@@ -11819,7 +12474,7 @@
         <v>83268734</v>
       </c>
       <c r="D306">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E306">
         <v>890792</v>
@@ -11851,7 +12506,7 @@
         <v>2432882</v>
       </c>
       <c r="D307">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E307">
         <v>44274</v>
@@ -11915,7 +12570,7 @@
         <v>17384339</v>
       </c>
       <c r="D309">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E309">
         <v>92256</v>
@@ -11947,7 +12602,7 @@
         <v>14519541</v>
       </c>
       <c r="D310">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E310">
         <v>165413</v>
@@ -11979,7 +12634,7 @@
         <v>14637481</v>
       </c>
       <c r="D311">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E311">
         <v>235581</v>
@@ -12011,7 +12666,7 @@
         <v>9852179</v>
       </c>
       <c r="D312">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E312">
         <v>151973</v>
@@ -12043,7 +12698,7 @@
         <v>15281259</v>
       </c>
       <c r="D313">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E313">
         <v>114425</v>
@@ -12058,7 +12713,7 @@
         <v>309955</v>
       </c>
       <c r="I313">
-        <v>8290000000.000001</v>
+        <v>8290000000</v>
       </c>
       <c r="J313" t="s">
         <v>271</v>
@@ -12075,7 +12730,7 @@
         <v>4709879</v>
       </c>
       <c r="D314">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E314">
         <v>70605</v>
@@ -12107,7 +12762,7 @@
         <v>16505459</v>
       </c>
       <c r="D315">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E315">
         <v>282157</v>
@@ -12250,7 +12905,7 @@
         <v>86827</v>
       </c>
       <c r="I319">
-        <v>6990000000.000001</v>
+        <v>6990000000</v>
       </c>
       <c r="J319" t="s">
         <v>275</v>
@@ -12282,7 +12937,7 @@
         <v>146856</v>
       </c>
       <c r="I320">
-        <v>7540000000.000001</v>
+        <v>7540000000</v>
       </c>
       <c r="J320" t="s">
         <v>276</v>
@@ -12299,7 +12954,7 @@
         <v>9482538</v>
       </c>
       <c r="D321">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E321">
         <v>82049</v>
@@ -12331,7 +12986,7 @@
         <v>14728520</v>
       </c>
       <c r="D322">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E322">
         <v>275853</v>
@@ -12395,7 +13050,7 @@
         <v>7707855</v>
       </c>
       <c r="D324">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E324">
         <v>123782</v>
@@ -12410,7 +13065,7 @@
         <v>124184</v>
       </c>
       <c r="I324">
-        <v>8059999999.999999</v>
+        <v>8060000000</v>
       </c>
       <c r="J324" t="s">
         <v>280</v>
@@ -12491,7 +13146,7 @@
         <v>9722864</v>
       </c>
       <c r="D327">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E327">
         <v>56772</v>
@@ -12523,7 +13178,7 @@
         <v>7111448</v>
       </c>
       <c r="D328">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E328">
         <v>80439</v>
@@ -12555,7 +13210,7 @@
         <v>16362881</v>
       </c>
       <c r="D329">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E329">
         <v>112032</v>
@@ -12570,7 +13225,7 @@
         <v>165233</v>
       </c>
       <c r="I329">
-        <v>6490000000.000001</v>
+        <v>6490000000</v>
       </c>
       <c r="J329" t="s">
         <v>180</v>
@@ -12651,7 +13306,7 @@
         <v>1387739</v>
       </c>
       <c r="D332">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E332">
         <v>18324</v>
@@ -12779,7 +13434,7 @@
         <v>641084</v>
       </c>
       <c r="D336">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E336">
         <v>5012</v>
@@ -12843,7 +13498,7 @@
         <v>4634740</v>
       </c>
       <c r="D338">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E338">
         <v>100760</v>
@@ -12875,7 +13530,7 @@
         <v>19504728</v>
       </c>
       <c r="D339">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E339">
         <v>96032</v>
@@ -13131,7 +13786,7 @@
         <v>4071810</v>
       </c>
       <c r="D347">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E347">
         <v>43073</v>
@@ -13163,7 +13818,7 @@
         <v>301885</v>
       </c>
       <c r="D348">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E348">
         <v>33534</v>
@@ -13195,7 +13850,7 @@
         <v>1156895</v>
       </c>
       <c r="D349">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E349">
         <v>19559</v>
@@ -13227,7 +13882,7 @@
         <v>11223079</v>
       </c>
       <c r="D350">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E350">
         <v>164693</v>
@@ -13259,7 +13914,7 @@
         <v>6499504</v>
       </c>
       <c r="D351">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E351">
         <v>154686</v>
@@ -13355,7 +14010,7 @@
         <v>2903535</v>
       </c>
       <c r="D354">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E354">
         <v>75458</v>
@@ -13387,7 +14042,7 @@
         <v>11025693</v>
       </c>
       <c r="D355">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E355">
         <v>112680</v>
@@ -13451,7 +14106,7 @@
         <v>6335041</v>
       </c>
       <c r="D357">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E357">
         <v>13787</v>
@@ -13483,7 +14138,7 @@
         <v>482475</v>
       </c>
       <c r="D358">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E358">
         <v>6928</v>
@@ -13515,7 +14170,7 @@
         <v>5942422</v>
       </c>
       <c r="D359">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E359">
         <v>79812</v>
@@ -13547,7 +14202,7 @@
         <v>1939527</v>
       </c>
       <c r="D360">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E360">
         <v>26637</v>
@@ -13579,7 +14234,7 @@
         <v>3751852</v>
       </c>
       <c r="D361">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E361">
         <v>30583</v>
@@ -13611,7 +14266,7 @@
         <v>6471212</v>
       </c>
       <c r="D362">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E362">
         <v>9725</v>
@@ -13643,7 +14298,7 @@
         <v>579495</v>
       </c>
       <c r="D363">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E363">
         <v>12035</v>
@@ -13675,7 +14330,7 @@
         <v>488726</v>
       </c>
       <c r="D364">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E364">
         <v>5577</v>
@@ -13739,7 +14394,7 @@
         <v>752777</v>
       </c>
       <c r="D366">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E366">
         <v>6763</v>
@@ -13771,7 +14426,7 @@
         <v>7570183</v>
       </c>
       <c r="D367">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E367">
         <v>9893</v>
@@ -13899,7 +14554,7 @@
         <v>800715</v>
       </c>
       <c r="D371">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E371">
         <v>3572</v>
@@ -13963,7 +14618,7 @@
         <v>985216</v>
       </c>
       <c r="D373">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E373">
         <v>4841</v>
@@ -13995,7 +14650,7 @@
         <v>234243</v>
       </c>
       <c r="D374">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E374">
         <v>1901</v>
@@ -14027,7 +14682,7 @@
         <v>5622935</v>
       </c>
       <c r="D375">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E375">
         <v>4412</v>
@@ -14059,7 +14714,7 @@
         <v>746128</v>
       </c>
       <c r="D376">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E376">
         <v>4829</v>
@@ -14123,7 +14778,7 @@
         <v>1422517</v>
       </c>
       <c r="D378">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E378">
         <v>4169</v>
@@ -14155,7 +14810,7 @@
         <v>666580</v>
       </c>
       <c r="D379">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E379">
         <v>1394</v>
@@ -14187,7 +14842,7 @@
         <v>358326</v>
       </c>
       <c r="D380">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E380">
         <v>1375</v>
@@ -14219,7 +14874,7 @@
         <v>193625</v>
       </c>
       <c r="D381">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E381">
         <v>773</v>
@@ -14251,7 +14906,7 @@
         <v>363400</v>
       </c>
       <c r="D382">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E382">
         <v>769</v>
@@ -14283,7 +14938,7 @@
         <v>64227</v>
       </c>
       <c r="D383">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E383">
         <v>598</v>
@@ -14315,7 +14970,7 @@
         <v>573946</v>
       </c>
       <c r="D384">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E384">
         <v>306</v>
@@ -14347,7 +15002,7 @@
         <v>188394</v>
       </c>
       <c r="D385">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E385">
         <v>233</v>
@@ -14379,7 +15034,7 @@
         <v>2404636</v>
       </c>
       <c r="D386">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E386">
         <v>47008</v>
@@ -14394,7 +15049,7 @@
         <v>14620</v>
       </c>
       <c r="I386">
-        <v>58270000000.00001</v>
+        <v>58270000000</v>
       </c>
       <c r="J386" t="s">
         <v>314</v>
@@ -14411,7 +15066,7 @@
         <v>158792313</v>
       </c>
       <c r="D387">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E387">
         <v>2258154</v>
@@ -14458,7 +15113,7 @@
         <v>1495149</v>
       </c>
       <c r="I388">
-        <v>51329999999.99999</v>
+        <v>51330000000</v>
       </c>
       <c r="J388" t="s">
         <v>316</v>
@@ -14475,7 +15130,7 @@
         <v>87894075</v>
       </c>
       <c r="D389">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E389">
         <v>1667832</v>
@@ -14507,7 +15162,7 @@
         <v>12826052</v>
       </c>
       <c r="D390">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E390">
         <v>278424</v>
@@ -14522,7 +15177,7 @@
         <v>46818</v>
       </c>
       <c r="I390">
-        <v>58270000000.00001</v>
+        <v>58270000000</v>
       </c>
       <c r="J390" t="s">
         <v>318</v>
@@ -14571,7 +15226,7 @@
         <v>76921595</v>
       </c>
       <c r="D392">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E392">
         <v>1054663</v>
@@ -14635,7 +15290,7 @@
         <v>107369672</v>
       </c>
       <c r="D394">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E394">
         <v>1418987</v>
@@ -14699,7 +15354,7 @@
         <v>91860089</v>
       </c>
       <c r="D396">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E396">
         <v>1508077</v>
@@ -14731,7 +15386,7 @@
         <v>3565896</v>
       </c>
       <c r="D397">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E397">
         <v>74512</v>
@@ -14763,7 +15418,7 @@
         <v>81367346</v>
       </c>
       <c r="D398">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E398">
         <v>1559476</v>
@@ -14827,7 +15482,7 @@
         <v>78235599</v>
       </c>
       <c r="D400">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E400">
         <v>1534706</v>
@@ -14859,7 +15514,7 @@
         <v>61380623</v>
       </c>
       <c r="D401">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E401">
         <v>1333627</v>
@@ -14923,7 +15578,7 @@
         <v>64784322</v>
       </c>
       <c r="D403">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E403">
         <v>1232663</v>
@@ -14955,7 +15610,7 @@
         <v>37023600</v>
       </c>
       <c r="D404">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E404">
         <v>812744</v>
@@ -15019,7 +15674,7 @@
         <v>51559913</v>
       </c>
       <c r="D406">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E406">
         <v>1224461</v>
@@ -15179,7 +15834,7 @@
         <v>49451073</v>
       </c>
       <c r="D411">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E411">
         <v>1093846</v>
@@ -15307,7 +15962,7 @@
         <v>72911491</v>
       </c>
       <c r="D415">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E415">
         <v>1189824</v>
@@ -15371,7 +16026,7 @@
         <v>12082559</v>
       </c>
       <c r="D417">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E417">
         <v>140616</v>
@@ -15403,7 +16058,7 @@
         <v>40506908</v>
       </c>
       <c r="D418">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E418">
         <v>760036</v>
@@ -15531,7 +16186,7 @@
         <v>24647847</v>
       </c>
       <c r="D422">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E422">
         <v>634892</v>
@@ -15563,7 +16218,7 @@
         <v>33685646</v>
       </c>
       <c r="D423">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E423">
         <v>827612</v>
@@ -15595,7 +16250,7 @@
         <v>17147936</v>
       </c>
       <c r="D424">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E424">
         <v>301492</v>
@@ -15659,7 +16314,7 @@
         <v>21123987</v>
       </c>
       <c r="D426">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E426">
         <v>471929</v>
@@ -15723,7 +16378,7 @@
         <v>37822293</v>
       </c>
       <c r="D428">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E428">
         <v>489525</v>
@@ -15819,7 +16474,7 @@
         <v>34077224</v>
       </c>
       <c r="D431">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E431">
         <v>594342</v>
@@ -15851,7 +16506,7 @@
         <v>10652926</v>
       </c>
       <c r="D432">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E432">
         <v>100051</v>
@@ -15883,7 +16538,7 @@
         <v>30191332</v>
       </c>
       <c r="D433">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E433">
         <v>789727</v>
@@ -15979,7 +16634,7 @@
         <v>31187934</v>
       </c>
       <c r="D436">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E436">
         <v>669595</v>
@@ -16075,7 +16730,7 @@
         <v>19768228</v>
       </c>
       <c r="D439">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E439">
         <v>434825</v>
@@ -16139,7 +16794,7 @@
         <v>15997139</v>
       </c>
       <c r="D441">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E441">
         <v>293901</v>
@@ -16203,7 +16858,7 @@
         <v>17564297</v>
       </c>
       <c r="D443">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E443">
         <v>267794</v>
@@ -16235,7 +16890,7 @@
         <v>26322482</v>
       </c>
       <c r="D444">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E444">
         <v>446148</v>
@@ -16299,7 +16954,7 @@
         <v>13896425</v>
       </c>
       <c r="D446">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E446">
         <v>243187</v>
@@ -16331,7 +16986,7 @@
         <v>13310621</v>
       </c>
       <c r="D447">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E447">
         <v>178244</v>
@@ -16363,7 +17018,7 @@
         <v>7153316</v>
       </c>
       <c r="D448">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E448">
         <v>137986</v>
@@ -16427,7 +17082,7 @@
         <v>4248949</v>
       </c>
       <c r="D450">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E450">
         <v>46476</v>
@@ -16491,7 +17146,7 @@
         <v>8816903</v>
       </c>
       <c r="D452">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E452">
         <v>176875</v>
@@ -16523,7 +17178,7 @@
         <v>9111996</v>
       </c>
       <c r="D453">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E453">
         <v>204342</v>
@@ -16715,7 +17370,7 @@
         <v>4508609</v>
       </c>
       <c r="D459">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E459">
         <v>84516</v>
@@ -16747,7 +17402,7 @@
         <v>6597288</v>
       </c>
       <c r="D460">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E460">
         <v>132751</v>
@@ -16811,7 +17466,7 @@
         <v>5724256</v>
       </c>
       <c r="D462">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E462">
         <v>132021</v>
@@ -16843,7 +17498,7 @@
         <v>5678646</v>
       </c>
       <c r="D463">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E463">
         <v>125253</v>
@@ -16939,7 +17594,7 @@
         <v>6268405</v>
       </c>
       <c r="D466">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E466">
         <v>114989</v>
@@ -16971,7 +17626,7 @@
         <v>5118960</v>
       </c>
       <c r="D467">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E467">
         <v>126053</v>
@@ -17067,7 +17722,7 @@
         <v>4133997</v>
       </c>
       <c r="D470">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E470">
         <v>76676</v>
@@ -17099,7 +17754,7 @@
         <v>14751041</v>
       </c>
       <c r="D471">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E471">
         <v>250445</v>
@@ -17195,7 +17850,7 @@
         <v>2028015</v>
       </c>
       <c r="D474">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E474">
         <v>70232</v>
@@ -17323,7 +17978,7 @@
         <v>3708093</v>
       </c>
       <c r="D478">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E478">
         <v>59534</v>
@@ -17387,7 +18042,7 @@
         <v>1067239</v>
       </c>
       <c r="D480">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E480">
         <v>42214</v>
@@ -17483,7 +18138,7 @@
         <v>7800422</v>
       </c>
       <c r="D483">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E483">
         <v>40301</v>
@@ -17547,7 +18202,7 @@
         <v>1712826</v>
       </c>
       <c r="D485">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E485">
         <v>29219</v>
@@ -17611,7 +18266,7 @@
         <v>309119</v>
       </c>
       <c r="D487">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E487">
         <v>7428</v>
@@ -17675,7 +18330,7 @@
         <v>913802</v>
       </c>
       <c r="D489">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E489">
         <v>25068</v>
@@ -17818,7 +18473,7 @@
         <v>5989</v>
       </c>
       <c r="I493">
-        <v>490000000.0000001</v>
+        <v>490000000</v>
       </c>
       <c r="J493" t="s">
         <v>407</v>
@@ -17899,7 +18554,7 @@
         <v>956738</v>
       </c>
       <c r="D496">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E496">
         <v>18403</v>
@@ -17931,7 +18586,7 @@
         <v>642813</v>
       </c>
       <c r="D497">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E497">
         <v>10337</v>
@@ -18059,7 +18714,7 @@
         <v>583216</v>
       </c>
       <c r="D501">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E501">
         <v>10684</v>
@@ -18091,7 +18746,7 @@
         <v>1277690</v>
       </c>
       <c r="D502">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E502">
         <v>4120</v>
@@ -18155,7 +18810,7 @@
         <v>827411</v>
       </c>
       <c r="D504">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E504">
         <v>7025</v>
@@ -18187,7 +18842,7 @@
         <v>175079</v>
       </c>
       <c r="D505">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E505">
         <v>7983</v>
@@ -18219,7 +18874,7 @@
         <v>721076</v>
       </c>
       <c r="D506">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E506">
         <v>6820</v>
@@ -18251,7 +18906,7 @@
         <v>70428</v>
       </c>
       <c r="D507">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E507">
         <v>3622</v>
@@ -18283,7 +18938,7 @@
         <v>47313</v>
       </c>
       <c r="D508">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E508">
         <v>3210</v>
@@ -18315,7 +18970,7 @@
         <v>686987</v>
       </c>
       <c r="D509">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E509">
         <v>3652</v>
@@ -18347,7 +19002,7 @@
         <v>328504</v>
       </c>
       <c r="D510">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E510">
         <v>2736</v>
@@ -18379,7 +19034,7 @@
         <v>211561</v>
       </c>
       <c r="D511">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E511">
         <v>1688</v>
@@ -18443,7 +19098,7 @@
         <v>942972</v>
       </c>
       <c r="D513">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E513">
         <v>4334</v>
@@ -18475,7 +19130,7 @@
         <v>2438442</v>
       </c>
       <c r="D514">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E514">
         <v>2185</v>
@@ -18507,7 +19162,7 @@
         <v>685829</v>
       </c>
       <c r="D515">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E515">
         <v>2088</v>
@@ -18539,7 +19194,7 @@
         <v>33919</v>
       </c>
       <c r="D516">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E516">
         <v>2895</v>
@@ -18571,7 +19226,7 @@
         <v>1951476</v>
       </c>
       <c r="D517">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E517">
         <v>5507</v>
@@ -18603,7 +19258,7 @@
         <v>774275</v>
       </c>
       <c r="D518">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E518">
         <v>2969</v>
@@ -18635,7 +19290,7 @@
         <v>561427</v>
       </c>
       <c r="D519">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E519">
         <v>2638</v>
@@ -18667,7 +19322,7 @@
         <v>135074</v>
       </c>
       <c r="D520">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E520">
         <v>954</v>
@@ -18699,7 +19354,7 @@
         <v>76728</v>
       </c>
       <c r="D521">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E521">
         <v>3411</v>
@@ -18731,7 +19386,7 @@
         <v>124400</v>
       </c>
       <c r="D522">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E522">
         <v>1227</v>
@@ -18763,7 +19418,7 @@
         <v>618509</v>
       </c>
       <c r="D523">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E523">
         <v>712</v>
@@ -18795,7 +19450,7 @@
         <v>1031973</v>
       </c>
       <c r="D524">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E524">
         <v>3546</v>
@@ -18827,7 +19482,7 @@
         <v>693272</v>
       </c>
       <c r="D525">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E525">
         <v>2683</v>
@@ -18859,7 +19514,7 @@
         <v>67147</v>
       </c>
       <c r="D526">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E526">
         <v>395</v>
@@ -18891,7 +19546,7 @@
         <v>1282207</v>
       </c>
       <c r="D527">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E527">
         <v>515</v>
@@ -18923,7 +19578,7 @@
         <v>94166</v>
       </c>
       <c r="D528">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E528">
         <v>351</v>
@@ -18955,7 +19610,7 @@
         <v>1247605</v>
       </c>
       <c r="D529">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E529">
         <v>431</v>
@@ -18987,7 +19642,7 @@
         <v>203915</v>
       </c>
       <c r="D530">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E530">
         <v>192</v>
@@ -19066,7 +19721,7 @@
         <v>101901</v>
       </c>
       <c r="I532">
-        <v>58270000000.00001</v>
+        <v>58270000000</v>
       </c>
       <c r="J532" t="s">
         <v>420</v>
@@ -19083,7 +19738,7 @@
         <v>222675095</v>
       </c>
       <c r="D533">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E533">
         <v>3327536</v>
@@ -19115,7 +19770,7 @@
         <v>6278193</v>
       </c>
       <c r="D534">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E534">
         <v>70253</v>
@@ -19179,7 +19834,7 @@
         <v>85297435</v>
       </c>
       <c r="D536">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E536">
         <v>1996183</v>
@@ -19211,7 +19866,7 @@
         <v>2633504</v>
       </c>
       <c r="D537">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E537">
         <v>31965</v>
@@ -19435,7 +20090,7 @@
         <v>18988887</v>
       </c>
       <c r="D544">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E544">
         <v>343441</v>
@@ -19499,7 +20154,7 @@
         <v>63930729</v>
       </c>
       <c r="D546">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E546">
         <v>1100034</v>
@@ -19531,7 +20186,7 @@
         <v>4627896</v>
       </c>
       <c r="D547">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E547">
         <v>17516</v>
@@ -19563,7 +20218,7 @@
         <v>107260011</v>
       </c>
       <c r="D548">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E548">
         <v>1854233</v>
@@ -19595,7 +20250,7 @@
         <v>67829118</v>
       </c>
       <c r="D549">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E549">
         <v>1384193</v>
@@ -19659,7 +20314,7 @@
         <v>10163680</v>
       </c>
       <c r="D551">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E551">
         <v>137027</v>
@@ -19723,7 +20378,7 @@
         <v>66631371</v>
       </c>
       <c r="D553">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E553">
         <v>809579</v>
@@ -19787,7 +20442,7 @@
         <v>6065867</v>
       </c>
       <c r="D555">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E555">
         <v>38294</v>
@@ -19851,7 +20506,7 @@
         <v>28846585</v>
       </c>
       <c r="D557">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E557">
         <v>506162</v>
@@ -19947,7 +20602,7 @@
         <v>5195605</v>
       </c>
       <c r="D560">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E560">
         <v>206639</v>
@@ -19979,7 +20634,7 @@
         <v>1767671</v>
       </c>
       <c r="D561">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E561">
         <v>47427</v>
@@ -20043,7 +20698,7 @@
         <v>17849513</v>
       </c>
       <c r="D563">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E563">
         <v>302870</v>
@@ -20075,7 +20730,7 @@
         <v>17476112</v>
       </c>
       <c r="D564">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E564">
         <v>577087</v>
@@ -20107,7 +20762,7 @@
         <v>2368925</v>
       </c>
       <c r="D565">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E565">
         <v>32623</v>
@@ -20139,7 +20794,7 @@
         <v>1335279</v>
       </c>
       <c r="D566">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E566">
         <v>38657</v>
@@ -20171,7 +20826,7 @@
         <v>12077867</v>
       </c>
       <c r="D567">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E567">
         <v>304748</v>
@@ -20267,7 +20922,7 @@
         <v>4605197</v>
       </c>
       <c r="D570">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E570">
         <v>38953</v>
@@ -20299,7 +20954,7 @@
         <v>19250132</v>
       </c>
       <c r="D571">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E571">
         <v>317667</v>
@@ -20363,7 +21018,7 @@
         <v>7897080</v>
       </c>
       <c r="D573">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E573">
         <v>91201</v>
@@ -20395,7 +21050,7 @@
         <v>17877043</v>
       </c>
       <c r="D574">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E574">
         <v>41966</v>
@@ -20459,7 +21114,7 @@
         <v>9031744</v>
       </c>
       <c r="D576">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E576">
         <v>195947</v>
@@ -20523,7 +21178,7 @@
         <v>347021</v>
       </c>
       <c r="D578">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E578">
         <v>2138</v>
@@ -20555,7 +21210,7 @@
         <v>475145</v>
       </c>
       <c r="D579">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E579">
         <v>1958</v>
@@ -20619,7 +21274,7 @@
         <v>4248481</v>
       </c>
       <c r="D581">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E581">
         <v>91906</v>
@@ -20651,7 +21306,7 @@
         <v>4126308</v>
       </c>
       <c r="D582">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E582">
         <v>91693</v>
@@ -20683,7 +21338,7 @@
         <v>11945928</v>
       </c>
       <c r="D583">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E583">
         <v>174845</v>
@@ -20715,7 +21370,7 @@
         <v>6782591</v>
       </c>
       <c r="D584">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E584">
         <v>175792</v>
@@ -20939,7 +21594,7 @@
         <v>2501110</v>
       </c>
       <c r="D591">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E591">
         <v>21956</v>
@@ -21003,7 +21658,7 @@
         <v>16123893</v>
       </c>
       <c r="D593">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E593">
         <v>196336</v>
@@ -21035,7 +21690,7 @@
         <v>1259126</v>
       </c>
       <c r="D594">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E594">
         <v>3356</v>
@@ -21099,7 +21754,7 @@
         <v>336507</v>
       </c>
       <c r="D596">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E596">
         <v>1491</v>
@@ -21163,7 +21818,7 @@
         <v>41535810</v>
       </c>
       <c r="D598">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E598">
         <v>102499</v>
@@ -21355,7 +22010,7 @@
         <v>3630625</v>
       </c>
       <c r="D604">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E604">
         <v>68085</v>
@@ -21515,7 +22170,7 @@
         <v>3031979</v>
       </c>
       <c r="D609">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E609">
         <v>52096</v>
@@ -21611,7 +22266,7 @@
         <v>7212034</v>
       </c>
       <c r="D612">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E612">
         <v>129263</v>
@@ -21643,7 +22298,7 @@
         <v>4444712</v>
       </c>
       <c r="D613">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E613">
         <v>55065</v>
@@ -21675,7 +22330,7 @@
         <v>1296773</v>
       </c>
       <c r="D614">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E614">
         <v>30673</v>
@@ -21707,7 +22362,7 @@
         <v>10567481</v>
       </c>
       <c r="D615">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E615">
         <v>170513</v>
@@ -21786,7 +22441,7 @@
         <v>5623</v>
       </c>
       <c r="I617">
-        <v>980000000.0000001</v>
+        <v>980000000</v>
       </c>
       <c r="J617" t="s">
         <v>472</v>
@@ -21931,7 +22586,7 @@
         <v>4775467</v>
       </c>
       <c r="D622">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E622">
         <v>179651</v>
@@ -21963,7 +22618,7 @@
         <v>36178197</v>
       </c>
       <c r="D623">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E623">
         <v>124121</v>
@@ -21995,7 +22650,7 @@
         <v>7813080</v>
       </c>
       <c r="D624">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E624">
         <v>92841</v>
@@ -22027,7 +22682,7 @@
         <v>7336417</v>
       </c>
       <c r="D625">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E625">
         <v>46011</v>
@@ -22123,7 +22778,7 @@
         <v>3748807</v>
       </c>
       <c r="D628">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E628">
         <v>38440</v>
@@ -22219,7 +22874,7 @@
         <v>951334</v>
       </c>
       <c r="D631">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E631">
         <v>122366</v>
@@ -22283,7 +22938,7 @@
         <v>1261921</v>
       </c>
       <c r="D633">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E633">
         <v>13821</v>
@@ -22475,7 +23130,7 @@
         <v>2431689</v>
       </c>
       <c r="D639">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E639">
         <v>52848</v>
@@ -22571,7 +23226,7 @@
         <v>2283930</v>
       </c>
       <c r="D642">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E642">
         <v>8314</v>
@@ -22603,7 +23258,7 @@
         <v>533175</v>
       </c>
       <c r="D643">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E643">
         <v>7939</v>
@@ -22635,7 +23290,7 @@
         <v>1735278</v>
       </c>
       <c r="D644">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E644">
         <v>8855</v>
@@ -22650,7 +23305,7 @@
         <v>5172</v>
       </c>
       <c r="I644">
-        <v>819999999.9999999</v>
+        <v>820000000</v>
       </c>
       <c r="J644" t="s">
         <v>110</v>
@@ -22667,7 +23322,7 @@
         <v>1491259</v>
       </c>
       <c r="D645">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E645">
         <v>8834</v>
@@ -22699,7 +23354,7 @@
         <v>864835</v>
       </c>
       <c r="D646">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E646">
         <v>9708</v>
@@ -22731,7 +23386,7 @@
         <v>49640</v>
       </c>
       <c r="D647">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E647">
         <v>2267</v>
@@ -22763,7 +23418,7 @@
         <v>2839148</v>
       </c>
       <c r="D648">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E648">
         <v>7337</v>
@@ -22827,7 +23482,7 @@
         <v>2987867</v>
       </c>
       <c r="D650">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E650">
         <v>6529</v>
@@ -22859,7 +23514,7 @@
         <v>760044</v>
       </c>
       <c r="D651">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E651">
         <v>19907</v>
@@ -22891,7 +23546,7 @@
         <v>678300</v>
       </c>
       <c r="D652">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E652">
         <v>1920</v>
@@ -22923,7 +23578,7 @@
         <v>5523386</v>
       </c>
       <c r="D653">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E653">
         <v>10514</v>
@@ -23019,7 +23674,7 @@
         <v>10432102</v>
       </c>
       <c r="D656">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E656">
         <v>6948</v>
@@ -23051,7 +23706,7 @@
         <v>14612808</v>
       </c>
       <c r="D657">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E657">
         <v>6853</v>
@@ -23083,7 +23738,7 @@
         <v>9148871</v>
       </c>
       <c r="D658">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E658">
         <v>4500</v>
@@ -23147,7 +23802,7 @@
         <v>2678120</v>
       </c>
       <c r="D660">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E660">
         <v>4333</v>
@@ -23179,7 +23834,7 @@
         <v>3627153</v>
       </c>
       <c r="D661">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E661">
         <v>7063</v>
@@ -23211,7 +23866,7 @@
         <v>2444589</v>
       </c>
       <c r="D662">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E662">
         <v>3688</v>
@@ -23275,7 +23930,7 @@
         <v>10559235</v>
       </c>
       <c r="D664">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E664">
         <v>56941</v>
@@ -23307,7 +23962,7 @@
         <v>1338561</v>
       </c>
       <c r="D665">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E665">
         <v>4520</v>
@@ -23339,7 +23994,7 @@
         <v>2873615</v>
       </c>
       <c r="D666">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E666">
         <v>1326</v>
@@ -23371,7 +24026,7 @@
         <v>736665</v>
       </c>
       <c r="D667">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E667">
         <v>51701</v>
@@ -23403,7 +24058,7 @@
         <v>1338666</v>
       </c>
       <c r="D668">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E668">
         <v>2183</v>
@@ -23435,7 +24090,7 @@
         <v>1900248</v>
       </c>
       <c r="D669">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E669">
         <v>1147</v>
@@ -23467,7 +24122,7 @@
         <v>46214</v>
       </c>
       <c r="D670">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E670">
         <v>545</v>
@@ -23499,7 +24154,7 @@
         <v>1049027</v>
       </c>
       <c r="D671">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E671">
         <v>1318</v>
@@ -23531,7 +24186,7 @@
         <v>238545</v>
       </c>
       <c r="D672">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E672">
         <v>694</v>
@@ -23563,7 +24218,7 @@
         <v>3450490</v>
       </c>
       <c r="D673">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E673">
         <v>1090</v>
@@ -23595,7 +24250,7 @@
         <v>70520</v>
       </c>
       <c r="D674">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E674">
         <v>172</v>
@@ -23627,7 +24282,7 @@
         <v>346734</v>
       </c>
       <c r="D675">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E675">
         <v>384</v>
@@ -23659,7 +24314,7 @@
         <v>47722</v>
       </c>
       <c r="D676">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E676">
         <v>121</v>
@@ -23691,7 +24346,7 @@
         <v>49457</v>
       </c>
       <c r="D677">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E677">
         <v>583</v>
@@ -23723,7 +24378,7 @@
         <v>46433</v>
       </c>
       <c r="D678">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E678">
         <v>125</v>
@@ -23755,7 +24410,7 @@
         <v>115101</v>
       </c>
       <c r="D679">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E679">
         <v>594</v>
@@ -23819,7 +24474,7 @@
         <v>43338379</v>
       </c>
       <c r="D681">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E681">
         <v>530895</v>
@@ -23834,7 +24489,7 @@
         <v>132224</v>
       </c>
       <c r="I681">
-        <v>58029999999.99999</v>
+        <v>58030000000</v>
       </c>
       <c r="J681" t="s">
         <v>501</v>
@@ -23866,7 +24521,7 @@
         <v>82270</v>
       </c>
       <c r="I682">
-        <v>51329999999.99999</v>
+        <v>51330000000</v>
       </c>
       <c r="J682" t="s">
         <v>502</v>
@@ -23883,7 +24538,7 @@
         <v>52792948</v>
       </c>
       <c r="D683">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E683">
         <v>489598</v>
@@ -23915,7 +24570,7 @@
         <v>16994978</v>
       </c>
       <c r="D684">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="E684">
         <v>175319</v>
@@ -23947,7 +24602,7 @@
         <v>35183305</v>
       </c>
       <c r="D685">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E685">
         <v>382887</v>
@@ -23979,7 +24634,7 @@
         <v>10281471</v>
       </c>
       <c r="D686">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E686">
         <v>124700</v>
@@ -24043,7 +24698,7 @@
         <v>1655067</v>
       </c>
       <c r="D688">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="E688">
         <v>12889</v>
@@ -24107,7 +24762,7 @@
         <v>3541878</v>
       </c>
       <c r="D690">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E690">
         <v>98294</v>
@@ -24139,7 +24794,7 @@
         <v>1818014</v>
       </c>
       <c r="D691">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E691">
         <v>23577</v>
@@ -24171,7 +24826,7 @@
         <v>1319418</v>
       </c>
       <c r="D692">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E692">
         <v>20541</v>
@@ -24203,7 +24858,7 @@
         <v>1047245</v>
       </c>
       <c r="D693">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E693">
         <v>10187</v>
@@ -24299,7 +24954,7 @@
         <v>962738</v>
       </c>
       <c r="D696">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E696">
         <v>21115</v>
@@ -24363,7 +25018,7 @@
         <v>7397249</v>
       </c>
       <c r="D698">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E698">
         <v>112112</v>
@@ -24491,7 +25146,7 @@
         <v>363533</v>
       </c>
       <c r="D702">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E702">
         <v>8708</v>
@@ -24587,7 +25242,7 @@
         <v>19487690</v>
       </c>
       <c r="D705">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E705">
         <v>280884</v>
@@ -24602,7 +25257,7 @@
         <v>70016</v>
       </c>
       <c r="I705">
-        <v>7859999999.999999</v>
+        <v>7860000000</v>
       </c>
       <c r="J705" t="s">
         <v>519</v>
@@ -24634,7 +25289,7 @@
         <v>94321</v>
       </c>
       <c r="I706">
-        <v>6609999999.999999</v>
+        <v>6610000000</v>
       </c>
       <c r="J706" t="s">
         <v>520</v>
@@ -24779,7 +25434,7 @@
         <v>7648347</v>
       </c>
       <c r="D711">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E711">
         <v>129056</v>
@@ -24939,7 +25594,7 @@
         <v>19234264</v>
       </c>
       <c r="D716">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E716">
         <v>220638</v>
@@ -24971,7 +25626,7 @@
         <v>20498650</v>
       </c>
       <c r="D717">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E717">
         <v>209196</v>
@@ -25003,7 +25658,7 @@
         <v>11622401</v>
       </c>
       <c r="D718">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E718">
         <v>173021</v>
@@ -25067,7 +25722,7 @@
         <v>13242914</v>
       </c>
       <c r="D720">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E720">
         <v>113454</v>
@@ -25099,7 +25754,7 @@
         <v>9772774</v>
       </c>
       <c r="D721">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E721">
         <v>117660</v>
@@ -25131,7 +25786,7 @@
         <v>8549235</v>
       </c>
       <c r="D722">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E722">
         <v>79290</v>
@@ -25227,7 +25882,7 @@
         <v>936967</v>
       </c>
       <c r="D725">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E725">
         <v>12431</v>
@@ -25259,7 +25914,7 @@
         <v>4320828</v>
       </c>
       <c r="D726">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E726">
         <v>64586</v>
@@ -25291,7 +25946,7 @@
         <v>175711</v>
       </c>
       <c r="D727">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E727">
         <v>17668</v>
@@ -25355,7 +26010,7 @@
         <v>541640</v>
       </c>
       <c r="D729">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E729">
         <v>30911</v>
@@ -25419,7 +26074,7 @@
         <v>2915016</v>
       </c>
       <c r="D731">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="E731">
         <v>47698</v>
@@ -25483,7 +26138,7 @@
         <v>16153</v>
       </c>
       <c r="D733">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E733">
         <v>1077</v>
@@ -25515,7 +26170,7 @@
         <v>3872648</v>
       </c>
       <c r="D734">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E734">
         <v>59355</v>
@@ -25579,7 +26234,7 @@
         <v>4128054</v>
       </c>
       <c r="D736">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E736">
         <v>84365</v>
@@ -25611,7 +26266,7 @@
         <v>3223738</v>
       </c>
       <c r="D737">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E737">
         <v>30248</v>
@@ -25675,7 +26330,7 @@
         <v>2391093</v>
       </c>
       <c r="D739">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E739">
         <v>21764</v>
@@ -25722,7 +26377,7 @@
         <v>7649</v>
       </c>
       <c r="I740">
-        <v>919999999.9999999</v>
+        <v>920000000</v>
       </c>
       <c r="J740" t="s">
         <v>541</v>
@@ -25739,7 +26394,7 @@
         <v>1435604</v>
       </c>
       <c r="D741">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
       <c r="E741">
         <v>13305</v>
@@ -25771,7 +26426,7 @@
         <v>1406311</v>
       </c>
       <c r="D742">
-        <v>9.300000000000001</v>
+        <v>9.3</v>
       </c>
       <c r="E742">
         <v>14841</v>
@@ -25867,7 +26522,7 @@
         <v>239719</v>
       </c>
       <c r="D745">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E745">
         <v>1907</v>
@@ -25931,7 +26586,7 @@
         <v>3930464</v>
       </c>
       <c r="D747">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E747">
         <v>26375</v>
@@ -25963,7 +26618,7 @@
         <v>2240136</v>
       </c>
       <c r="D748">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E748">
         <v>14367</v>
@@ -25995,7 +26650,7 @@
         <v>3615851</v>
       </c>
       <c r="D749">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="E749">
         <v>27807</v>
@@ -26027,7 +26682,7 @@
         <v>3868115</v>
       </c>
       <c r="D750">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E750">
         <v>17848</v>
@@ -26059,7 +26714,7 @@
         <v>5040768</v>
       </c>
       <c r="D751">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E751">
         <v>29004</v>
@@ -26123,7 +26778,7 @@
         <v>4937139</v>
       </c>
       <c r="D753">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E753">
         <v>29850</v>
@@ -26187,7 +26842,7 @@
         <v>2531006</v>
       </c>
       <c r="D755">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E755">
         <v>13802</v>
@@ -26219,7 +26874,7 @@
         <v>2313895</v>
       </c>
       <c r="D756">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E756">
         <v>16628</v>
@@ -26251,7 +26906,7 @@
         <v>2031123</v>
       </c>
       <c r="D757">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="E757">
         <v>18861</v>
@@ -26347,7 +27002,7 @@
         <v>5810089</v>
       </c>
       <c r="D760">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E760">
         <v>32984</v>
@@ -26379,7 +27034,7 @@
         <v>994459</v>
       </c>
       <c r="D761">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E761">
         <v>5379</v>
@@ -26411,7 +27066,7 @@
         <v>5634942</v>
       </c>
       <c r="D762">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E762">
         <v>5733</v>
@@ -26507,7 +27162,7 @@
         <v>532619</v>
       </c>
       <c r="D765">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E765">
         <v>6664</v>
@@ -26539,7 +27194,7 @@
         <v>638256</v>
       </c>
       <c r="D766">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="E766">
         <v>41104</v>
@@ -26571,7 +27226,7 @@
         <v>2120045</v>
       </c>
       <c r="D767">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E767">
         <v>6958</v>
@@ -26603,7 +27258,7 @@
         <v>649009</v>
       </c>
       <c r="D768">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E768">
         <v>5745</v>
@@ -26635,7 +27290,7 @@
         <v>319345</v>
       </c>
       <c r="D769">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E769">
         <v>1883</v>
@@ -26699,7 +27354,7 @@
         <v>930500</v>
       </c>
       <c r="D771">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E771">
         <v>1408</v>
@@ -26731,7 +27386,7 @@
         <v>1219378</v>
       </c>
       <c r="D772">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E772">
         <v>3417</v>
@@ -26763,7 +27418,7 @@
         <v>662268</v>
       </c>
       <c r="D773">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E773">
         <v>9884</v>
@@ -26795,7 +27450,7 @@
         <v>504562</v>
       </c>
       <c r="D774">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E774">
         <v>5112</v>
@@ -26827,7 +27482,7 @@
         <v>589423</v>
       </c>
       <c r="D775">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E775">
         <v>2830</v>
@@ -26859,7 +27514,7 @@
         <v>1717572</v>
       </c>
       <c r="D776">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E776">
         <v>1808</v>
@@ -26891,7 +27546,7 @@
         <v>125885</v>
       </c>
       <c r="D777">
-        <v>8.743146603098927</v>
+        <v>8.74314660309893</v>
       </c>
       <c r="E777">
         <v>286</v>
@@ -26914,5 +27569,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>